--- a/medicine/Enfance/André_Charpentier/André_Charpentier.xlsx
+++ b/medicine/Enfance/André_Charpentier/André_Charpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Charpentier</t>
+          <t>André_Charpentier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Charpentier, né à Paris le 19 septembre 1884 où il est décédé le 19 octobre 1966[2], est un journaliste et auteur français de romans policiers, d'aventures et de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Charpentier, né à Paris le 19 septembre 1884 où il est décédé le 19 octobre 1966, est un journaliste et auteur français de romans policiers, d'aventures et de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Charpentier</t>
+          <t>André_Charpentier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Journaliste et polygraphe fécond, rédacteur au journal Le Matin, il amorce une carrière littéraire dès 1926 dans la tradition de l'écrivain britannique Edgar Wallace, devenant l'un des plus prolifiques auteurs français de romans policiers et d'aventures de l'Entre-deux-guerres avec près de cinquante titres publiés. Certains de ses récits sont destinés à des lecteurs adolescents.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Charpentier</t>
+          <t>André_Charpentier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Train évanoui, Paris, Gautier-Languereau, 1927
 Le Mystère du rapide 115, Paris, 1927
 Prends garde !, Paris, Librairie des Champs-Élysées, Le Masque no 16, 1928
@@ -588,12 +608,7 @@
 Par une nuit de tempête, Paris, Ferenczi, coll. Petit roman policier no 113, 1942
 Deux coups de feu, Paris, Baudinière, coll. Récits policiers, 1945
 L'Inconnue au browning, Paris, Ferenczi, coll. Mon roman policier no 97, 1949
-Romans de littérature d'enfance et de jeunesse
-Le Disciple de Loufock Holmes, dans Pêle-mêle, Paris, 1926
-Les Pirates de l'abîme, Paris, Tallandier, coll. Grandes Aventures, Voyages excentriques, 3e série no 6, 1937
-Le Mystère de l'île aux phoques, Paris, Tallandier, coll. Grandes Aventures, Voyages excentriques, 3e série no 32, 1939
-Théâtre
-L'Énigme  de la nuit des quatre, Paris, JL Le Jeune, 1938 (en collaboration avec Jacques Cossin)</t>
+</t>
         </is>
       </c>
     </row>
@@ -603,7 +618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Charpentier</t>
+          <t>André_Charpentier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,10 +633,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Disciple de Loufock Holmes, dans Pêle-mêle, Paris, 1926
+Les Pirates de l'abîme, Paris, Tallandier, coll. Grandes Aventures, Voyages excentriques, 3e série no 6, 1937
+Le Mystère de l'île aux phoques, Paris, Tallandier, coll. Grandes Aventures, Voyages excentriques, 3e série no 32, 1939</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Charpentier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Charpentier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Énigme  de la nuit des quatre, Paris, JL Le Jeune, 1938 (en collaboration avec Jacques Cossin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Charpentier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Charpentier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 104-105.
 Claude Mesplède, Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 401-402.</t>
